--- a/test_power_p150.xlsx
+++ b/test_power_p150.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2866666666666667</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3533333333333333</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4733333333333333</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="18">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.96</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.976</v>
       </c>
     </row>
   </sheetData>

--- a/test_power_p150.xlsx
+++ b/test_power_p150.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiting/PycharmProjects/bachelorthesis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC74589-1611-794B-B12A-9686F1D5B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="17820" yWindow="3000" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>DeSF</t>
+  </si>
+  <si>
+    <t>LDPE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,184 +387,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DeSF</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.6666600000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>7.6461840198787101E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>8.6666660000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.148</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.11020953539673051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>0.16666665999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.232</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.2064675164548285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.292</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.214563958815357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.356</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.27465309391984138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>0.34910586753360712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.488</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.44609917644910208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.576</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.49464899304054838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.61623005338816084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>0.6940046056780792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>0.74124311986697777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.868</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.81326408361894875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C17">
+        <v>0.81898532103037436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18">
+        <v>0.94</v>
+      </c>
+      <c r="C18">
+        <v>0.88243260095154819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.956</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C19">
+        <v>0.90285212723478359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.968</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C20">
+        <v>0.90631609858441087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.976</v>
+      <c r="B21">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.94745221369472921</v>
       </c>
     </row>
   </sheetData>
